--- a/ISMIP_variable.xlsx
+++ b/ISMIP_variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_protect\0_sanity_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_protect\0_sanity_check\ISMIP6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207189F6-368D-434E-B342-FC7FB6219508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62588B-1042-4AA4-AD43-CD8556DE9FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DC886D4E-CEE1-4BFF-9E84-D712843F2B72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{DC886D4E-CEE1-4BFF-9E84-D712843F2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="188">
   <si>
     <t>Comment</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>mandatory</t>
+  </si>
+  <si>
+    <t>Check spatial extent of the grid</t>
   </si>
 </sst>
 </file>
@@ -696,15 +699,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,17 +1071,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2073,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D54D82-B4F2-4912-BB71-B994ECBBED3C}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2134,7 +2137,7 @@
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -3251,28 +3254,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805709A-B9EA-458E-B037-6FEFCB1875C4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3283,7 +3287,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3294,7 +3298,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3305,8 +3309,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
